--- a/Excel Files/PearonsHandWorkedExample.xlsx
+++ b/Excel Files/PearonsHandWorkedExample.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - The Francis Crick Institute\Training\Colocalisation Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thefranciscrickinstitute-my.sharepoint.com/personal/barryd_crick_ac_uk/Documents/Training/Colocalisation Workshop/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2236CAED4912B0256D93D833C1D572F3C6E19DCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C78294A-C8C3-4D0B-9E79-8A926E433D13}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -142,9 +154,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -153,6 +162,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,18 +444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="4" customWidth="1"/>
@@ -451,28 +462,28 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RAND()*255</f>
-        <v>22.40251354353942</v>
+        <v>115.79706473981854</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()*255</f>
-        <v>201.95486330247604</v>
+        <v>164.07855174782682</v>
       </c>
       <c r="D2">
         <f ca="1">RAND()*255</f>
-        <v>83.466305755515648</v>
+        <v>223.43267256943022</v>
       </c>
       <c r="E2">
         <f ca="1">RAND()*255</f>
-        <v>204.59323565648833</v>
+        <v>89.55524930247644</v>
       </c>
       <c r="G2" s="2">
         <v>38.669329800091049</v>
       </c>
-      <c r="H2" s="2">
-        <v>47.19808902207113</v>
+      <c r="H2" s="3">
+        <v>187.5</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2">
@@ -482,28 +493,28 @@
         <v>252.38711891086712</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">RAND()*255</f>
-        <v>176.29547426535802</v>
+        <v>36.500559826819817</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()*255</f>
-        <v>164.71110052700777</v>
+        <v>148.88026994386215</v>
       </c>
       <c r="D3">
         <f ca="1">RAND()*255</f>
-        <v>64.433045100003525</v>
+        <v>125.20437435239053</v>
       </c>
       <c r="E3">
         <f ca="1">RAND()*255</f>
-        <v>18.926776478477283</v>
+        <v>108.33048961219664</v>
       </c>
       <c r="G3" s="3">
         <v>178.93974683212784</v>
       </c>
-      <c r="H3" s="3">
-        <v>187.4836504698211</v>
+      <c r="H3" s="2">
+        <v>47.2</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
@@ -513,29 +524,29 @@
         <v>51.098377738257746</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">AVERAGE(A2:B3)</f>
-        <v>141.3409879095953</v>
+        <v>116.31411156458182</v>
       </c>
       <c r="B5">
         <f ca="1">_xlfn.STDEV.P(A2:B3)</f>
-        <v>69.979248450548468</v>
+        <v>49.275924131411742</v>
       </c>
       <c r="D5">
         <f ca="1">AVERAGE(D2:E3)</f>
-        <v>92.854840747621196</v>
+        <v>136.63069645912347</v>
       </c>
       <c r="E5">
         <f ca="1">_xlfn.STDEV.P(D2:E3)</f>
-        <v>68.64177052008047</v>
+        <v>51.677227397854288</v>
       </c>
       <c r="G5" s="3">
         <v>113.07270403102778</v>
@@ -551,35 +562,36 @@
         <v>83.34854332854205</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">A2-AVERAGE($A$2:$B$3)</f>
-        <v>-118.93847436605589</v>
+        <v>-0.51704682476328401</v>
       </c>
       <c r="B7">
         <f ca="1">B2-AVERAGE($A$2:$B$3)</f>
-        <v>60.613875392880743</v>
+        <v>47.764440183245</v>
       </c>
       <c r="D7">
         <f ca="1">D2-AVERAGE($D$2:$E$3)</f>
-        <v>-9.3885349921055479</v>
+        <v>86.801976110306754</v>
       </c>
       <c r="E7">
         <f ca="1">E2-AVERAGE($D$2:$E$3)</f>
-        <v>111.73839490886714</v>
+        <v>-47.07544715664703</v>
       </c>
       <c r="G7" s="2">
         <v>-74.403374230936734</v>
       </c>
-      <c r="H7" s="2">
-        <v>-65.874615008956653</v>
+      <c r="H7" s="3">
+        <f>H2-G5</f>
+        <v>74.427295968972217</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2">
@@ -594,7 +606,7 @@
       </c>
       <c r="N7">
         <f>H7*K7</f>
-        <v>-8570.7747878042683</v>
+        <v>9683.5418579460566</v>
       </c>
       <c r="P7">
         <f>ABS(G7)</f>
@@ -602,7 +614,7 @@
       </c>
       <c r="Q7">
         <f>ABS(H7)</f>
-        <v>65.874615008956653</v>
+        <v>74.427295968972217</v>
       </c>
       <c r="S7">
         <f>ABS(J7)</f>
@@ -613,28 +625,29 @@
         <v>130.10739852732257</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">A3-AVERAGE($A$2:$B$3)</f>
-        <v>34.954486355762725</v>
+        <v>-79.813551737761998</v>
       </c>
       <c r="B8">
         <f ca="1">B3-AVERAGE($A$2:$B$3)</f>
-        <v>23.370112617412474</v>
+        <v>32.566158379280324</v>
       </c>
       <c r="D8">
         <f ca="1">D3-AVERAGE($D$2:$E$3)</f>
-        <v>-28.421795647617671</v>
+        <v>-11.42632210673294</v>
       </c>
       <c r="E8">
         <f ca="1">E3-AVERAGE($D$2:$E$3)</f>
-        <v>-73.928064269143917</v>
+        <v>-28.300206846926827</v>
       </c>
       <c r="G8" s="3">
         <v>65.867042801100055</v>
       </c>
-      <c r="H8" s="3">
-        <v>74.410946438793317</v>
+      <c r="H8" s="2">
+        <f>H3-G5</f>
+        <v>-65.87270403102778</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2">
@@ -649,7 +662,7 @@
       </c>
       <c r="N8">
         <f>H8*K8</f>
-        <v>-5296.6710750198308</v>
+        <v>4688.9075166041539</v>
       </c>
       <c r="P8">
         <f>ABS(G8)</f>
@@ -657,7 +670,7 @@
       </c>
       <c r="Q8">
         <f>ABS(H8)</f>
-        <v>74.410946438793317</v>
+        <v>65.87270403102778</v>
       </c>
       <c r="S8">
         <f>ABS(J8)</f>
@@ -672,13 +685,13 @@
       <c r="A11" s="5">
         <v>-74.400000000000006</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6">
         <v>-74.5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="8">
@@ -692,7 +705,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ref="H11:K12" si="0">H7*H7</f>
-        <v>4339.4649025782574</v>
+        <v>5539.4223852529876</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
@@ -704,7 +717,7 @@
       </c>
       <c r="M11" s="1">
         <f>SUM(G11:H12)/4</f>
-        <v>4937.6958192014981</v>
+        <v>4938.2412364807842</v>
       </c>
       <c r="N11" s="1">
         <f>SUM(J11:K12)/4</f>
@@ -712,7 +725,7 @@
       </c>
       <c r="P11">
         <f>SUM(P7:Q8)</f>
-        <v>280.55597847978675</v>
+        <v>280.57041703203674</v>
       </c>
       <c r="S11">
         <f>SUM(S7:T8)</f>
@@ -720,30 +733,31 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>-65.900000000000006</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="13">
+        <f>H7</f>
+        <v>74.427295968972217</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="6">
         <v>130.1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="8">
         <f>A12*C12</f>
-        <v>-8573.59</v>
-      </c>
-      <c r="F12" s="9"/>
+        <v>9682.9912055632849</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4">
         <f t="shared" ref="G12" si="1">G8*G8</f>
         <v>4338.4673273619464</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>5536.9889499169676</v>
+        <v>4339.2131363593835</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
@@ -755,20 +769,20 @@
       </c>
       <c r="M12">
         <f>SQRT(M11*N11)</f>
-        <v>5856.7971193541571</v>
+        <v>5857.1205809705452</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>65.900000000000006</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="6">
         <v>15.6</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="8">
@@ -780,42 +794,43 @@
       <c r="K13"/>
       <c r="P13">
         <f>P11*S11</f>
-        <v>81744.796202370679</v>
+        <v>81749.003122207243</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13">
+        <f>H8</f>
+        <v>-65.87270403102778</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="6">
         <v>-71.2</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="8">
         <f>A14*C14</f>
-        <v>-5297.2800000000007</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>4690.1365270091783</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="K14"/>
       <c r="M14">
         <f>(SUM(M7:N8)/4)/M12</f>
-        <v>-0.3115299827044683</v>
+        <v>0.89385318804211333</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>SUM(E11:E14)</f>
-        <v>-7300.0300000000007</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="M15" s="13">
+        <v>20943.967732572462</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="M15" s="12">
         <f>M11*N11</f>
-        <v>34302072.497275151</v>
+        <v>34305861.500028737</v>
       </c>
     </row>
   </sheetData>
